--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.834606</v>
+        <v>7.6704545</v>
       </c>
       <c r="N2">
-        <v>13.669212</v>
+        <v>15.340909</v>
       </c>
       <c r="O2">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P2">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q2">
-        <v>91.71956958526</v>
+        <v>10.7129172660615</v>
       </c>
       <c r="R2">
-        <v>550.3174175115601</v>
+        <v>42.851669064246</v>
       </c>
       <c r="S2">
-        <v>0.4319116043837925</v>
+        <v>0.05817982761034606</v>
       </c>
       <c r="T2">
-        <v>0.3894903086387788</v>
+        <v>0.04114645455412602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P3">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q3">
-        <v>11.49140013003667</v>
+        <v>1.195944636159</v>
       </c>
       <c r="R3">
-        <v>103.42260117033</v>
+        <v>7.175667816953999</v>
       </c>
       <c r="S3">
-        <v>0.05411352331049197</v>
+        <v>0.006494949138053879</v>
       </c>
       <c r="T3">
-        <v>0.07319793916791846</v>
+        <v>0.00689012344614021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,75 +652,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2788403333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N4">
-        <v>0.8365210000000001</v>
+        <v>1.477155</v>
       </c>
       <c r="O4">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P4">
-        <v>0.03019397181747735</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q4">
-        <v>3.742002883025556</v>
+        <v>1.0315320496425</v>
       </c>
       <c r="R4">
-        <v>33.67802594723</v>
+        <v>4.12612819857</v>
       </c>
       <c r="S4">
-        <v>0.01762126093836448</v>
+        <v>0.005602055474923992</v>
       </c>
       <c r="T4">
-        <v>0.02383581602749448</v>
+        <v>0.003961935441824212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,13 +732,13 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,42 +747,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8102764999999998</v>
+        <v>7.6704545</v>
       </c>
       <c r="N5">
-        <v>1.620553</v>
+        <v>15.340909</v>
       </c>
       <c r="O5">
-        <v>0.06876504632623845</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P5">
-        <v>0.05849336909740264</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q5">
-        <v>10.87381069589833</v>
+        <v>102.9365533672783</v>
       </c>
       <c r="R5">
-        <v>65.24286417539</v>
+        <v>617.6193202036699</v>
       </c>
       <c r="S5">
-        <v>0.05120526671317761</v>
+        <v>0.5590289536430981</v>
       </c>
       <c r="T5">
-        <v>0.04617601132643921</v>
+        <v>0.593042134541129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,13 +794,13 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,42 +809,42 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949111</v>
+        <v>0.856297</v>
       </c>
       <c r="N6">
-        <v>8.847333000000001</v>
+        <v>2.568891</v>
       </c>
       <c r="O6">
-        <v>0.2502796940750712</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P6">
-        <v>0.319341801654516</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q6">
-        <v>39.57670589631</v>
+        <v>11.49140013003666</v>
       </c>
       <c r="R6">
-        <v>356.1903530667901</v>
+        <v>103.42260117033</v>
       </c>
       <c r="S6">
-        <v>0.1863684992984073</v>
+        <v>0.06240762081539288</v>
       </c>
       <c r="T6">
-        <v>0.2520957653447802</v>
+        <v>0.09930706205502526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,75 +856,75 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05413033333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N7">
-        <v>0.162391</v>
+        <v>1.477155</v>
       </c>
       <c r="O7">
-        <v>0.0045938329438425</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P7">
-        <v>0.005861453899438226</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q7">
-        <v>0.7264223972588889</v>
+        <v>9.911618958775</v>
       </c>
       <c r="R7">
-        <v>6.537801575330001</v>
+        <v>59.46971375264999</v>
       </c>
       <c r="S7">
-        <v>0.00342075594640415</v>
+        <v>0.05382812804760595</v>
       </c>
       <c r="T7">
-        <v>0.004627166563087904</v>
+        <v>0.05710321039308045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,60 +933,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.834606</v>
+        <v>7.6704545</v>
       </c>
       <c r="N8">
-        <v>13.669212</v>
+        <v>15.340909</v>
       </c>
       <c r="O8">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P8">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q8">
-        <v>0.7990018926319999</v>
+        <v>2.348907940626</v>
       </c>
       <c r="R8">
-        <v>4.794011355792</v>
+        <v>14.093447643756</v>
       </c>
       <c r="S8">
-        <v>0.003762536075047539</v>
+        <v>0.01275647479245726</v>
       </c>
       <c r="T8">
-        <v>0.00339298903354447</v>
+        <v>0.01353262114750639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,116 +1001,116 @@
         <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P9">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q9">
-        <v>0.1001056862173333</v>
+        <v>0.262222117716</v>
       </c>
       <c r="R9">
-        <v>0.9009511759559998</v>
+        <v>2.359999059444</v>
       </c>
       <c r="S9">
-        <v>0.000471402207157952</v>
+        <v>0.001424078729018831</v>
       </c>
       <c r="T9">
-        <v>0.0006376533622692432</v>
+        <v>0.002266086623174601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2788403333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N10">
-        <v>0.8365210000000001</v>
+        <v>1.477155</v>
       </c>
       <c r="O10">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P10">
-        <v>0.03019397181747735</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q10">
-        <v>0.03259792211511111</v>
+        <v>0.22617311067</v>
       </c>
       <c r="R10">
-        <v>0.293381299036</v>
+        <v>1.35703866402</v>
       </c>
       <c r="S10">
-        <v>0.0001535050906145793</v>
+        <v>0.001228303389457053</v>
       </c>
       <c r="T10">
-        <v>0.0002076422971075182</v>
+        <v>0.001303037453070402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>4.505141</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>9.010282</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,60 +1119,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8102764999999998</v>
+        <v>7.6704545</v>
       </c>
       <c r="N11">
-        <v>1.620553</v>
+        <v>15.340909</v>
       </c>
       <c r="O11">
-        <v>0.06876504632623845</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P11">
-        <v>0.05849336909740264</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q11">
-        <v>0.09472564432466664</v>
+        <v>34.5564790565845</v>
       </c>
       <c r="R11">
-        <v>0.5683538659479999</v>
+        <v>138.225916226338</v>
       </c>
       <c r="S11">
-        <v>0.0004460673463859155</v>
+        <v>0.1876697023229936</v>
       </c>
       <c r="T11">
-        <v>0.0004022557084693389</v>
+        <v>0.1327254341407885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>4.505141</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>9.010282</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,122 +1181,122 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.949111</v>
+        <v>0.856297</v>
       </c>
       <c r="N12">
-        <v>8.847333000000001</v>
+        <v>2.568891</v>
       </c>
       <c r="O12">
-        <v>0.2502796940750712</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P12">
-        <v>0.319341801654516</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q12">
-        <v>0.344766804492</v>
+        <v>3.857738722877</v>
       </c>
       <c r="R12">
-        <v>3.102901240428</v>
+        <v>23.146432337262</v>
       </c>
       <c r="S12">
-        <v>0.001623522486419776</v>
+        <v>0.02095064941589478</v>
       </c>
       <c r="T12">
-        <v>0.002196096149881653</v>
+        <v>0.02222535660927031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>4.505141</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>9.010282</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05413033333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N13">
-        <v>0.162391</v>
+        <v>1.477155</v>
       </c>
       <c r="O13">
-        <v>0.0045938329438425</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P13">
-        <v>0.005861453899438226</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q13">
-        <v>0.006328124661777778</v>
+        <v>3.3273957769275</v>
       </c>
       <c r="R13">
-        <v>0.056953121956</v>
+        <v>13.30958310771</v>
       </c>
       <c r="S13">
-        <v>2.979942544179064E-05</v>
+        <v>0.01807045717661982</v>
       </c>
       <c r="T13">
-        <v>4.030889872410494E-05</v>
+        <v>0.01277994926299585</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,60 +1305,60 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.834606</v>
+        <v>7.6704545</v>
       </c>
       <c r="N14">
-        <v>13.669212</v>
+        <v>15.340909</v>
       </c>
       <c r="O14">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P14">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q14">
-        <v>20.961917719059</v>
+        <v>1.001758800881833</v>
       </c>
       <c r="R14">
-        <v>83.84767087623599</v>
+        <v>6.010552805291</v>
       </c>
       <c r="S14">
-        <v>0.0987106192706645</v>
+        <v>0.005440362591718112</v>
       </c>
       <c r="T14">
-        <v>0.0593436699785027</v>
+        <v>0.005771372346717539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,116 +1373,116 @@
         <v>2.568891</v>
       </c>
       <c r="O15">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P15">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q15">
-        <v>2.6262855908705</v>
+        <v>0.1118321027676667</v>
       </c>
       <c r="R15">
-        <v>15.757713545223</v>
+        <v>1.006488924909</v>
       </c>
       <c r="S15">
-        <v>0.01236729771249611</v>
+        <v>0.0006073390000814741</v>
       </c>
       <c r="T15">
-        <v>0.01115261214141282</v>
+        <v>0.0009664372873296861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2788403333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N16">
-        <v>0.8365210000000001</v>
+        <v>1.477155</v>
       </c>
       <c r="O16">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P16">
-        <v>0.03019397181747735</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q16">
-        <v>0.8552106916021667</v>
+        <v>0.0964579753075</v>
       </c>
       <c r="R16">
-        <v>5.131264149613</v>
+        <v>0.578747851845</v>
       </c>
       <c r="S16">
-        <v>0.004027225853395477</v>
+        <v>0.0005238450214501218</v>
       </c>
       <c r="T16">
-        <v>0.00363168163271497</v>
+        <v>0.000555717494890006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.115013</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.345039</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,60 +1491,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8102764999999998</v>
+        <v>7.6704545</v>
       </c>
       <c r="N17">
-        <v>1.620553</v>
+        <v>15.340909</v>
       </c>
       <c r="O17">
-        <v>0.06876504632623845</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P17">
-        <v>0.05849336909740264</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q17">
-        <v>2.485139497827249</v>
+        <v>0.8822019834084999</v>
       </c>
       <c r="R17">
-        <v>9.940557991308998</v>
+        <v>5.293211900450999</v>
       </c>
       <c r="S17">
-        <v>0.01170263437211546</v>
+        <v>0.004791072126993243</v>
       </c>
       <c r="T17">
-        <v>0.007035486933312064</v>
+        <v>0.005082576890546104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.115013</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.345039</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,834 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.949111</v>
+        <v>0.856297</v>
       </c>
       <c r="N18">
-        <v>8.847333000000001</v>
+        <v>2.568891</v>
       </c>
       <c r="O18">
-        <v>0.2502796940750712</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P18">
-        <v>0.319341801654516</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q18">
-        <v>9.045001588441501</v>
+        <v>0.09848528686099998</v>
       </c>
       <c r="R18">
-        <v>54.27000953064901</v>
+        <v>0.8863675817489999</v>
       </c>
       <c r="S18">
-        <v>0.04259332185468023</v>
+        <v>0.0005348549670854487</v>
       </c>
       <c r="T18">
-        <v>0.03840991051583049</v>
+        <v>0.0008510959833561278</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.115013</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.345039</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05413033333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N19">
-        <v>0.162391</v>
+        <v>1.477155</v>
       </c>
       <c r="O19">
-        <v>0.0045938329438425</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P19">
-        <v>0.005861453899438226</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q19">
-        <v>0.1660191667871667</v>
+        <v>0.08494601400749999</v>
       </c>
       <c r="R19">
-        <v>0.996115000723</v>
+        <v>0.509676084045</v>
       </c>
       <c r="S19">
-        <v>0.0007817917703903965</v>
+        <v>0.0004613257368092532</v>
       </c>
       <c r="T19">
-        <v>0.0007050061050687511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.58338</v>
-      </c>
-      <c r="I20">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J20">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.834606</v>
-      </c>
-      <c r="N20">
-        <v>13.669212</v>
-      </c>
-      <c r="O20">
-        <v>0.5800266923841274</v>
-      </c>
-      <c r="P20">
-        <v>0.4933860619101292</v>
-      </c>
-      <c r="Q20">
-        <v>5.88546148276</v>
-      </c>
-      <c r="R20">
-        <v>35.31276889656</v>
-      </c>
-      <c r="S20">
-        <v>0.02771490449696139</v>
-      </c>
-      <c r="T20">
-        <v>0.02499281472609779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.58338</v>
-      </c>
-      <c r="I21">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J21">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.856297</v>
-      </c>
-      <c r="N21">
-        <v>2.568891</v>
-      </c>
-      <c r="O21">
-        <v>0.07267062894458745</v>
-      </c>
-      <c r="P21">
-        <v>0.09272334162103665</v>
-      </c>
-      <c r="Q21">
-        <v>0.7373801812866667</v>
-      </c>
-      <c r="R21">
-        <v>6.636421631579999</v>
-      </c>
-      <c r="S21">
-        <v>0.003472356647337761</v>
-      </c>
-      <c r="T21">
-        <v>0.004696965473543031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.58338</v>
-      </c>
-      <c r="I22">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J22">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.2788403333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.8365210000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.02366410532613305</v>
-      </c>
-      <c r="P22">
-        <v>0.03019397181747735</v>
-      </c>
-      <c r="Q22">
-        <v>0.2401168467755556</v>
-      </c>
-      <c r="R22">
-        <v>2.16105162098</v>
-      </c>
-      <c r="S22">
-        <v>0.001130721099099819</v>
-      </c>
-      <c r="T22">
-        <v>0.001529496679654251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.58338</v>
-      </c>
-      <c r="I23">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J23">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.8102764999999998</v>
-      </c>
-      <c r="N23">
-        <v>1.620553</v>
-      </c>
-      <c r="O23">
-        <v>0.06876504632623845</v>
-      </c>
-      <c r="P23">
-        <v>0.05849336909740264</v>
-      </c>
-      <c r="Q23">
-        <v>0.6977507015233332</v>
-      </c>
-      <c r="R23">
-        <v>4.186504209139999</v>
-      </c>
-      <c r="S23">
-        <v>0.003285739633511007</v>
-      </c>
-      <c r="T23">
-        <v>0.002963022366089716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.58338</v>
-      </c>
-      <c r="I24">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J24">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.949111</v>
-      </c>
-      <c r="N24">
-        <v>8.847333000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.2502796940750712</v>
-      </c>
-      <c r="P24">
-        <v>0.319341801654516</v>
-      </c>
-      <c r="Q24">
-        <v>2.539558125060001</v>
-      </c>
-      <c r="R24">
-        <v>22.85602312554</v>
-      </c>
-      <c r="S24">
-        <v>0.01195889415072914</v>
-      </c>
-      <c r="T24">
-        <v>0.01617648145987428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.58338</v>
-      </c>
-      <c r="I25">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J25">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.05413033333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.162391</v>
-      </c>
-      <c r="O25">
-        <v>0.0045938329438425</v>
-      </c>
-      <c r="P25">
-        <v>0.005861453899438226</v>
-      </c>
-      <c r="Q25">
-        <v>0.04661307350888889</v>
-      </c>
-      <c r="R25">
-        <v>0.41951766158</v>
-      </c>
-      <c r="S25">
-        <v>0.0002195030728504348</v>
-      </c>
-      <c r="T25">
-        <v>0.0002969160311644699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.671026</v>
-      </c>
-      <c r="I26">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J26">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>6.834606</v>
-      </c>
-      <c r="N26">
-        <v>13.669212</v>
-      </c>
-      <c r="O26">
-        <v>0.5800266923841274</v>
-      </c>
-      <c r="P26">
-        <v>0.4933860619101292</v>
-      </c>
-      <c r="Q26">
-        <v>3.806934775252</v>
-      </c>
-      <c r="R26">
-        <v>22.841608651512</v>
-      </c>
-      <c r="S26">
-        <v>0.01792702815766144</v>
-      </c>
-      <c r="T26">
-        <v>0.01616627953320545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H27">
-        <v>1.671026</v>
-      </c>
-      <c r="I27">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J27">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.856297</v>
-      </c>
-      <c r="N27">
-        <v>2.568891</v>
-      </c>
-      <c r="O27">
-        <v>0.07267062894458745</v>
-      </c>
-      <c r="P27">
-        <v>0.09272334162103665</v>
-      </c>
-      <c r="Q27">
-        <v>0.4769648502406666</v>
-      </c>
-      <c r="R27">
-        <v>4.292683652166</v>
-      </c>
-      <c r="S27">
-        <v>0.002246049067103651</v>
-      </c>
-      <c r="T27">
-        <v>0.0030381714758931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H28">
-        <v>1.671026</v>
-      </c>
-      <c r="I28">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J28">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2788403333333334</v>
-      </c>
-      <c r="N28">
-        <v>0.8365210000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.02366410532613305</v>
-      </c>
-      <c r="P28">
-        <v>0.03019397181747735</v>
-      </c>
-      <c r="Q28">
-        <v>0.1553164822828889</v>
-      </c>
-      <c r="R28">
-        <v>1.397848340546</v>
-      </c>
-      <c r="S28">
-        <v>0.0007313923446586925</v>
-      </c>
-      <c r="T28">
-        <v>0.0009893351805061296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H29">
-        <v>1.671026</v>
-      </c>
-      <c r="I29">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J29">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.8102764999999998</v>
-      </c>
-      <c r="N29">
-        <v>1.620553</v>
-      </c>
-      <c r="O29">
-        <v>0.06876504632623845</v>
-      </c>
-      <c r="P29">
-        <v>0.05849336909740264</v>
-      </c>
-      <c r="Q29">
-        <v>0.4513310328963332</v>
-      </c>
-      <c r="R29">
-        <v>2.707986197377999</v>
-      </c>
-      <c r="S29">
-        <v>0.002125338261048457</v>
-      </c>
-      <c r="T29">
-        <v>0.001916592763092319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H30">
-        <v>1.671026</v>
-      </c>
-      <c r="I30">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J30">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.949111</v>
-      </c>
-      <c r="N30">
-        <v>8.847333000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.2502796940750712</v>
-      </c>
-      <c r="P30">
-        <v>0.319341801654516</v>
-      </c>
-      <c r="Q30">
-        <v>1.642680385962</v>
-      </c>
-      <c r="R30">
-        <v>14.784123473658</v>
-      </c>
-      <c r="S30">
-        <v>0.007735456284834718</v>
-      </c>
-      <c r="T30">
-        <v>0.0104635481841494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.05413033333333334</v>
-      </c>
-      <c r="N31">
-        <v>0.162391</v>
-      </c>
-      <c r="O31">
-        <v>0.0045938329438425</v>
-      </c>
-      <c r="P31">
-        <v>0.005861453899438226</v>
-      </c>
-      <c r="Q31">
-        <v>0.03015106479622222</v>
-      </c>
-      <c r="R31">
-        <v>0.271359583166</v>
-      </c>
-      <c r="S31">
-        <v>0.0001419827287557273</v>
-      </c>
-      <c r="T31">
-        <v>0.0001920563013929966</v>
+        <v>0.0004893943290293052</v>
       </c>
     </row>
   </sheetData>
